--- a/slide/Week 06 - Simulasi Sejajar/Lat.6 Data.xlsx
+++ b/slide/Week 06 - Simulasi Sejajar/Lat.6 Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kemenkeu-my.sharepoint.com/personal/teuku_radarma_kemenkeu_go_id/Documents/PKN STAN/TABK Genap 2024/TABK-STAN/slide/Week 06 - Simulasi Sejajar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{42821E00-CDAE-4B20-833B-E07CB8A734CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D45A50A-600B-4094-931C-B912BB201BFB}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{42821E00-CDAE-4B20-833B-E07CB8A734CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1A587C8-AA86-44D2-B8F2-33047BE7A5DA}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{44A818EA-8A24-4CF2-A4A5-64B59027D6AC}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="2" xr2:uid="{44A818EA-8A24-4CF2-A4A5-64B59027D6AC}"/>
   </bookViews>
   <sheets>
     <sheet name="QUEST" sheetId="7" r:id="rId1"/>
@@ -2628,8 +2628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85F3DE2-EC3B-42D3-BC63-495C02D914A6}">
   <dimension ref="B3:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2907,7 +2907,7 @@
   <dimension ref="A2:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3221,8 +3221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9134A1AF-BC87-4E75-9844-6EE8EA4B970F}">
   <dimension ref="A1:U200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5997,7 +5997,7 @@
   <dimension ref="A1:N352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -13923,7 +13923,7 @@
   <dimension ref="C3:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -14400,7 +14400,7 @@
   <dimension ref="A1:F185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="F4" sqref="F4:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -17024,7 +17024,7 @@
   <dimension ref="B1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F4" sqref="F4:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -17117,12 +17117,12 @@
       </c>
       <c r="D4" s="8">
         <f ca="1">(RANDBETWEEN(850,3000)*1000000)</f>
-        <v>2084000000</v>
+        <v>2970000000</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="8">
         <f ca="1">SUM('Jurnal Penjualan'!I2:I235)+D4</f>
-        <v>8500499090</v>
+        <v>9386499090</v>
       </c>
       <c r="G4" s="21">
         <f>SUM('Jurnal Pembelian'!K2:K106)+SUM(PAYROLL!E2:F133)</f>
@@ -17206,12 +17206,12 @@
       <c r="D8" s="8"/>
       <c r="E8" s="10">
         <f ca="1">SUM(D4:D6)</f>
-        <v>3585965000</v>
+        <v>4471965000</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="21">
         <f ca="1">E8</f>
-        <v>3585965000</v>
+        <v>4471965000</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="12"/>
@@ -17358,19 +17358,19 @@
       </c>
       <c r="D16" s="48">
         <f ca="1">SUM(D4:D15)</f>
-        <v>3585965000</v>
+        <v>4471965000</v>
       </c>
       <c r="E16" s="48">
         <f ca="1">SUM(E4:E15)</f>
-        <v>3585965000</v>
+        <v>4471965000</v>
       </c>
       <c r="F16" s="49">
         <f ca="1">SUM(F4:F15)</f>
-        <v>18558534210</v>
+        <v>19444534210</v>
       </c>
       <c r="G16" s="50">
         <f ca="1">SUM(G4:G15)</f>
-        <v>18558534210</v>
+        <v>19444534210</v>
       </c>
       <c r="H16" s="51"/>
       <c r="I16" s="52"/>
